--- a/biology/Botanique/Puccinia/Puccinia.xlsx
+++ b/biology/Botanique/Puccinia/Puccinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puccinia est un genre de champignons basidiomycètes de la famille des Pucciniaceae.
 Ces champignons microscopiques sont responsables de maladies fongiques appelées rouilles.
@@ -514,7 +526,9 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreuses espèces de Puccinia sont responsables de maladies des plantes cultivées, avec par exemple :
 Puccinia asparagi - rouille de l'asperge,
@@ -552,9 +566,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première espèce du genre Puccinia dont le génome a été séquencé est une sous-espèce de Puccinia graminis (Puccinia graminis f. sp tritici) ; c'est le second urédiniomycète à avoir été séquencé (le premier étant Sporobolomyces roseus)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première espèce du genre Puccinia dont le génome a été séquencé est une sous-espèce de Puccinia graminis (Puccinia graminis f. sp tritici) ; c'est le second urédiniomycète à avoir été séquencé (le premier étant Sporobolomyces roseus).
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des milliers d'espèces ont été décrites au sein du genre Puccinia, dont (court extrait de la liste) :
 Puccinia angustata
